--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32120639-2BA7-4F51-BC58-7B8C7320FDF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF37E05-5201-4177-ADA8-B91F6EC00765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Developer1</t>
   </si>
@@ -364,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,18 +411,25 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44284</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>44283</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
@@ -515,6 +522,10 @@
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF37E05-5201-4177-ADA8-B91F6EC00765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF26FE-B994-4995-95B4-31913D91BD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Developer1</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -367,16 +370,16 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -387,7 +390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44272</v>
       </c>
@@ -398,7 +401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44275</v>
       </c>
@@ -409,7 +412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44283</v>
       </c>
@@ -420,7 +423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44284</v>
       </c>
@@ -431,99 +434,104 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44286</v>
+      </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CF26FE-B994-4995-95B4-31913D91BD97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68E343-0816-4DE2-9BE9-734B4C352F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Developer1</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>2.5</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -444,8 +447,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68E343-0816-4DE2-9BE9-734B4C352F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F38FA6-B409-454A-8A19-6162FC68321C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="3315" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Developer1</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -373,16 +382,16 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -393,7 +402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44272</v>
       </c>
@@ -404,7 +413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44275</v>
       </c>
@@ -415,7 +424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44283</v>
       </c>
@@ -426,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44284</v>
       </c>
@@ -437,16 +446,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44287</v>
       </c>
@@ -457,91 +468,105 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F38FA6-B409-454A-8A19-6162FC68321C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F118F5BF-6043-4003-A26A-B417C9D45C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="3315" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -382,7 +382,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F118F5BF-6043-4003-A26A-B417C9D45C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371DF88F-EABE-4017-9DFA-10169A6475CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Developer1</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -382,16 +385,16 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -402,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44272</v>
       </c>
@@ -413,7 +416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44275</v>
       </c>
@@ -424,7 +427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44283</v>
       </c>
@@ -435,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44284</v>
       </c>
@@ -446,7 +449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -457,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44287</v>
       </c>
@@ -468,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44289</v>
       </c>
@@ -479,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44290</v>
       </c>
@@ -490,83 +493,88 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371DF88F-EABE-4017-9DFA-10169A6475CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890570B-646D-48B5-AD3F-4601C1667D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29115" yWindow="1440" windowWidth="27000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Developer1</t>
   </si>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,19 +503,39 @@
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="A11" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="A12" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="A13" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="A14" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -577,6 +597,10 @@
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7890570B-646D-48B5-AD3F-4601C1667D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7A23B-CB82-4DBC-910D-19C2F151B8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29115" yWindow="1440" windowWidth="27000" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Developer1</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,68 +545,91 @@
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="A15" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="A16" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E7A23B-CB82-4DBC-910D-19C2F151B8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18743322-E5B6-4784-82F0-91C85919A5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="23010" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Developer1</t>
   </si>
@@ -34,33 +34,6 @@
   </si>
   <si>
     <t>Developer2</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
   </si>
 </sst>
 </file>
@@ -102,10 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -391,7 +367,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,71 +416,71 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
+      <c r="C4" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44284</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44287</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44289</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44290</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44303</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
+      <c r="B10" s="3">
+        <v>4</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -512,8 +488,8 @@
       <c r="A11" s="1">
         <v>44304</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
+      <c r="B11" s="3">
+        <v>1</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -521,8 +497,8 @@
       <c r="A12" s="1">
         <v>44307</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
+      <c r="B12" s="3">
+        <v>2.5</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -530,8 +506,8 @@
       <c r="A13" s="1">
         <v>44308</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
+      <c r="B13" s="3">
+        <v>4</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -539,8 +515,8 @@
       <c r="A14" s="1">
         <v>44309</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
+      <c r="B14" s="3">
+        <v>4</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -548,8 +524,8 @@
       <c r="A15" s="1">
         <v>44332</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
+      <c r="B15" s="3">
+        <v>8</v>
       </c>
       <c r="C15" s="2"/>
     </row>
@@ -557,8 +533,8 @@
       <c r="A16" s="1">
         <v>44333</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
+      <c r="B16" s="3">
+        <v>8</v>
       </c>
       <c r="C16" s="2"/>
     </row>
@@ -566,13 +542,18 @@
       <c r="A17" s="1">
         <v>44334</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
+      <c r="B17" s="3">
+        <v>5</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="A18" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18743322-E5B6-4784-82F0-91C85919A5F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0498FC-7D39-4947-AC58-3C15AEF3F4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="23010" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -367,7 +367,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>44335</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2"/>
     </row>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0498FC-7D39-4947-AC58-3C15AEF3F4D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71ABF76-A9A6-41C0-8D6C-F6BB78B12E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Developer1</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Developer2</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -367,7 +370,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +560,12 @@
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+      <c r="A19" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71ABF76-A9A6-41C0-8D6C-F6BB78B12E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3952E0-0FF6-45A0-A2CA-EBE4E0452F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Developer1</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,11 +572,21 @@
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="A20" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="A21" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3952E0-0FF6-45A0-A2CA-EBE4E0452F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C896C4-9841-4846-A3AB-7BD5BE847AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Developer1</t>
   </si>
@@ -40,6 +48,15 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -81,13 +98,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -370,16 +391,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -400,7 +422,7 @@
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
     </row>
@@ -411,7 +433,7 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0</v>
       </c>
     </row>
@@ -422,7 +444,7 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>1.5</v>
       </c>
     </row>
@@ -433,7 +455,7 @@
       <c r="B5" s="3">
         <v>1.5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>1.5</v>
       </c>
     </row>
@@ -444,7 +466,7 @@
       <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>2.5</v>
       </c>
     </row>
@@ -455,7 +477,7 @@
       <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
     </row>
@@ -466,7 +488,7 @@
       <c r="B8" s="3">
         <v>0</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
     </row>
@@ -477,149 +499,201 @@
       <c r="B9" s="3">
         <v>3</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44303</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>44294</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44304</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>44296</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44307</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>44297</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44308</v>
+        <v>44303</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44309</v>
+        <v>44304</v>
       </c>
       <c r="B14" s="3">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44332</v>
-      </c>
-      <c r="B15" s="3">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>44305</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44333</v>
+        <v>44307</v>
       </c>
       <c r="B16" s="3">
-        <v>8</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44334</v>
+        <v>44308</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44335</v>
+        <v>44309</v>
       </c>
       <c r="B18" s="3">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44336</v>
-      </c>
-      <c r="B19" s="2" t="s">
+        <v>44324</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44337</v>
-      </c>
-      <c r="B20" s="2" t="s">
+        <v>44325</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B23" s="3">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B25" s="3">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>44338</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="C29" s="4">
+        <f>SUM($C$2:$C$28)</f>
+        <v>19.5</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -632,6 +706,34 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C896C4-9841-4846-A3AB-7BD5BE847AF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175A3F8-CF1D-4100-824B-75562C51843D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Developer1</t>
   </si>
@@ -44,19 +44,10 @@
     <t>Developer2</t>
   </si>
   <si>
-    <t>4</t>
+    <t>Erol</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>İbrahim</t>
   </si>
 </sst>
 </file>
@@ -391,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,8 +537,8 @@
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>5</v>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,8 +546,8 @@
         <v>44305</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
+      <c r="C15" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -568,7 +559,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44308</v>
       </c>
@@ -577,7 +568,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44309</v>
       </c>
@@ -585,57 +576,71 @@
         <v>4</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
+        <f>SUM($C$2:$C$50)</f>
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44324</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="4">
+        <f>SUM($B$2:$B$50)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44331</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44332</v>
       </c>
       <c r="B22" s="3">
         <v>8</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44333</v>
       </c>
       <c r="B23" s="3">
         <v>8</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44334</v>
       </c>
@@ -644,66 +649,67 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44335</v>
       </c>
       <c r="B25" s="3">
         <v>8</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44336</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44337</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44338</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="4">
-        <f>SUM($C$2:$C$28)</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\personal\Erko_Project\ErkoSMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175A3F8-CF1D-4100-824B-75562C51843D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B7B45-D5E7-42ED-BA51-5161C54CE0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,7 +385,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="J18" s="4">
         <f>SUM($C$2:$C$50)</f>
-        <v>47.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -699,6 +699,9 @@
       </c>
       <c r="B29" s="3">
         <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B7B45-D5E7-42ED-BA51-5161C54CE0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03502B59-69B7-4881-8CD2-ABFA3BEA61C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -384,18 +384,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -406,7 +406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44272</v>
       </c>
@@ -417,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44275</v>
       </c>
@@ -428,7 +428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44283</v>
       </c>
@@ -439,7 +439,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44284</v>
       </c>
@@ -450,7 +450,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -461,7 +461,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44287</v>
       </c>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44289</v>
       </c>
@@ -483,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44290</v>
       </c>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44294</v>
       </c>
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44296</v>
       </c>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44297</v>
       </c>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44303</v>
       </c>
@@ -530,7 +530,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44304</v>
       </c>
@@ -541,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44305</v>
       </c>
@@ -550,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44307</v>
       </c>
@@ -559,7 +559,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44308</v>
       </c>
@@ -568,7 +568,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44309</v>
       </c>
@@ -581,10 +581,10 @@
       </c>
       <c r="J18" s="4">
         <f>SUM($C$2:$C$50)</f>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44324</v>
       </c>
@@ -600,7 +600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44331</v>
       </c>
@@ -618,7 +618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44332</v>
       </c>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44333</v>
       </c>
@@ -640,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44334</v>
       </c>
@@ -649,7 +649,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44335</v>
       </c>
@@ -660,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44336</v>
       </c>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44337</v>
       </c>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44338</v>
       </c>
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44339</v>
       </c>
@@ -704,43 +704,48 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>44340</v>
+      </c>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03502B59-69B7-4881-8CD2-ABFA3BEA61C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A72C98-C8FA-4A23-8CF2-DFF7B7987F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Developer1</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>İbrahim</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -385,17 +388,17 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -406,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44272</v>
       </c>
@@ -417,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44275</v>
       </c>
@@ -428,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44283</v>
       </c>
@@ -439,7 +442,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44284</v>
       </c>
@@ -450,7 +453,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -461,7 +464,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44287</v>
       </c>
@@ -472,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44289</v>
       </c>
@@ -483,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44290</v>
       </c>
@@ -494,7 +497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44294</v>
       </c>
@@ -503,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44296</v>
       </c>
@@ -512,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44297</v>
       </c>
@@ -521,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44303</v>
       </c>
@@ -530,7 +533,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44304</v>
       </c>
@@ -541,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44305</v>
       </c>
@@ -550,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44307</v>
       </c>
@@ -559,7 +562,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44308</v>
       </c>
@@ -568,7 +571,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>44309</v>
       </c>
@@ -584,7 +587,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44324</v>
       </c>
@@ -600,7 +603,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
@@ -609,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44331</v>
       </c>
@@ -618,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>44332</v>
       </c>
@@ -629,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44333</v>
       </c>
@@ -640,7 +643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>44334</v>
       </c>
@@ -649,7 +652,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44335</v>
       </c>
@@ -660,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>44336</v>
       </c>
@@ -671,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44337</v>
       </c>
@@ -682,7 +685,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>44338</v>
       </c>
@@ -693,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44339</v>
       </c>
@@ -704,7 +707,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>44340</v>
       </c>
@@ -713,39 +716,44 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44341</v>
+      </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A72C98-C8FA-4A23-8CF2-DFF7B7987F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717422F6-B9C3-4505-A682-833BFF9545D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Developer1</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>İbrahim</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -388,17 +385,17 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -409,7 +406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44272</v>
       </c>
@@ -420,7 +417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44275</v>
       </c>
@@ -431,7 +428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44283</v>
       </c>
@@ -442,7 +439,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44284</v>
       </c>
@@ -453,7 +450,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44286</v>
       </c>
@@ -464,7 +461,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44287</v>
       </c>
@@ -475,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44289</v>
       </c>
@@ -486,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44290</v>
       </c>
@@ -497,7 +494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44294</v>
       </c>
@@ -506,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44296</v>
       </c>
@@ -515,7 +512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44297</v>
       </c>
@@ -524,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44303</v>
       </c>
@@ -533,7 +530,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44304</v>
       </c>
@@ -544,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44305</v>
       </c>
@@ -553,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44307</v>
       </c>
@@ -562,7 +559,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44308</v>
       </c>
@@ -571,7 +568,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44309</v>
       </c>
@@ -584,10 +581,10 @@
       </c>
       <c r="J18" s="4">
         <f>SUM($C$2:$C$50)</f>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44324</v>
       </c>
@@ -603,7 +600,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44325</v>
       </c>
@@ -612,7 +609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44331</v>
       </c>
@@ -621,7 +618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44332</v>
       </c>
@@ -632,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44333</v>
       </c>
@@ -643,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44334</v>
       </c>
@@ -652,7 +649,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44335</v>
       </c>
@@ -663,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44336</v>
       </c>
@@ -674,7 +671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44337</v>
       </c>
@@ -685,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44338</v>
       </c>
@@ -696,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44339</v>
       </c>
@@ -707,7 +704,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44340</v>
       </c>
@@ -716,44 +713,49 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44341</v>
       </c>
       <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>44345</v>
+      </c>
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>

--- a/WorkingHours.xlsx
+++ b/WorkingHours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ErkoSMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717422F6-B9C3-4505-A682-833BFF9545D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE26CF5-CCFB-459D-8A9A-A33C0F002647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,7 +581,7 @@
       </c>
       <c r="J18" s="4">
         <f>SUM($C$2:$C$50)</f>
-        <v>55.5</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
